--- a/Deliverable 6/Test Data/Edward - Test Data.xlsx
+++ b/Deliverable 6/Test Data/Edward - Test Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -69,6 +69,100 @@
   </si>
   <si>
     <t>Add Service</t>
+  </si>
+  <si>
+    <t>ID: 2000</t>
+  </si>
+  <si>
+    <t>Error Alert</t>
+  </si>
+  <si>
+    <t>ID: 104</t>
+  </si>
+  <si>
+    <t>Success Alert</t>
+  </si>
+  <si>
+    <t>ID: 1010
+name: Don Cheadle
+address: 112 25 St South
+city: St. Cloud
+state: MN
+zip: 24123
+status: valid</t>
+  </si>
+  <si>
+    <t>Role: Provider
+ID: 100</t>
+  </si>
+  <si>
+    <t>Move to provider area</t>
+  </si>
+  <si>
+    <t>Role: Provider
+ID: 2000</t>
+  </si>
+  <si>
+    <t>ID: 2000
+ID: 1010
+name: 123X
+city: S12
+state: mn
+zip: 2
+status: valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Alert
+Error Alert:
+</t>
+  </si>
+  <si>
+    <t>Service Time: Test Service
+Service Code: 200002
+Service Fee: 59.99</t>
+  </si>
+  <si>
+    <t>Success Alert
+Service Added in DB</t>
+  </si>
+  <si>
+    <t>Success Alert
+Provider Deleted in DB</t>
+  </si>
+  <si>
+    <t>Success Alert
+Member Updated in DB</t>
+  </si>
+  <si>
+    <t>Time: 12:00AM
+Weekday: Tuesday
+Report Type: Provider Report</t>
+  </si>
+  <si>
+    <t>Success Alert
+Schedule Updated in DB</t>
+  </si>
+  <si>
+    <t>N/A: GUI Constriction</t>
+  </si>
+  <si>
+    <t>Service Time: Test Service
+Service Code: 100002
+Service Fee: 59.99</t>
+  </si>
+  <si>
+    <t>Provider Login ID: 100
+start date: 11/01/2014
+end date: 12/09/2014</t>
+  </si>
+  <si>
+    <t>Provider Login ID: 100
+start date: 09/01/2014
+end date: 10/1/2014</t>
+  </si>
+  <si>
+    <t>Error Alert
+No service record</t>
   </si>
 </sst>
 </file>
@@ -130,15 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,6 +238,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,13 +530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="6" width="26.1796875" customWidth="1"/>
@@ -447,20 +544,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -469,21 +566,21 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -492,9 +589,18 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -503,9 +609,21 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -514,9 +632,21 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -525,9 +655,21 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -536,9 +678,21 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -546,6 +700,18 @@
       </c>
       <c r="C8" t="s">
         <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 6/Test Data/Edward - Test Data.xlsx
+++ b/Deliverable 6/Test Data/Edward - Test Data.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$8</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,56 +23,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Use Case</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Happy Path</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Sad Path</t>
-  </si>
-  <si>
-    <t>Update Provider Report Scheduler</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Update Member Info</t>
-  </si>
-  <si>
-    <t>Delete Provider Info</t>
-  </si>
-  <si>
-    <t>Verify Weekly Provider Report Services</t>
-  </si>
-  <si>
-    <t>Authenticate Provider</t>
-  </si>
-  <si>
-    <t>Add Service</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,39 +33,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,27 +54,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,130 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
-    <col min="2" max="2" width="35.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:G8"/>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Deliverable 6/Test Data/Edward - Test Data.xlsx
+++ b/Deliverable 6/Test Data/Edward - Test Data.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +26,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Happy Path</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Sad Path</t>
+  </si>
+  <si>
+    <t>Update Provider Report Scheduler</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Update Member Info</t>
+  </si>
+  <si>
+    <t>Delete Provider Info</t>
+  </si>
+  <si>
+    <t>Verify Weekly Provider Report Services</t>
+  </si>
+  <si>
+    <t>Authenticate Provider</t>
+  </si>
+  <si>
+    <t>Add Service</t>
+  </si>
+  <si>
+    <t>ID: 2000</t>
+  </si>
+  <si>
+    <t>Error Alert</t>
+  </si>
+  <si>
+    <t>ID: 104</t>
+  </si>
+  <si>
+    <t>Success Alert</t>
+  </si>
+  <si>
+    <t>ID: 1010
+name: Don Cheadle
+address: 112 25 St South
+city: St. Cloud
+state: MN
+zip: 24123
+status: valid</t>
+  </si>
+  <si>
+    <t>Role: Provider
+ID: 100</t>
+  </si>
+  <si>
+    <t>Move to provider area</t>
+  </si>
+  <si>
+    <t>Role: Provider
+ID: 2000</t>
+  </si>
+  <si>
+    <t>ID: 2000
+ID: 1010
+name: 123X
+city: S12
+state: mn
+zip: 2
+status: valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Alert
+Error Alert:
+</t>
+  </si>
+  <si>
+    <t>Service Time: Test Service
+Service Code: 200002
+Service Fee: 59.99</t>
+  </si>
+  <si>
+    <t>Success Alert
+Service Added in DB</t>
+  </si>
+  <si>
+    <t>Success Alert
+Provider Deleted in DB</t>
+  </si>
+  <si>
+    <t>Success Alert
+Member Updated in DB</t>
+  </si>
+  <si>
+    <t>Time: 12:00AM
+Weekday: Tuesday
+Report Type: Provider Report</t>
+  </si>
+  <si>
+    <t>Success Alert
+Schedule Updated in DB</t>
+  </si>
+  <si>
+    <t>N/A: GUI Constriction</t>
+  </si>
+  <si>
+    <t>Service Time: Test Service
+Service Code: 100002
+Service Fee: 59.99</t>
+  </si>
+  <si>
+    <t>Provider Login ID: 100
+start date: 11/01/2014
+end date: 12/09/2014</t>
+  </si>
+  <si>
+    <t>Provider Login ID: 100
+start date: 09/01/2014
+end date: 10/1/2014</t>
+  </si>
+  <si>
+    <t>Error Alert
+No service record</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +177,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +224,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +528,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="6" width="26.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:G8"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>